--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13c.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13c.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.196711</v>
+        <v>0.1433473333333333</v>
       </c>
       <c r="H2">
-        <v>0.590133</v>
+        <v>0.430042</v>
       </c>
       <c r="I2">
-        <v>0.05713779197487898</v>
+        <v>0.03250327325123204</v>
       </c>
       <c r="J2">
-        <v>0.05713779197487898</v>
+        <v>0.03250327325123203</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.260444</v>
       </c>
       <c r="O2">
-        <v>0.2587232317853953</v>
+        <v>0.07959568312211748</v>
       </c>
       <c r="P2">
-        <v>0.2587232317853953</v>
+        <v>0.07959568312211748</v>
       </c>
       <c r="Q2">
-        <v>0.01707739989466667</v>
+        <v>0.01244465096088889</v>
       </c>
       <c r="R2">
-        <v>0.153696599052</v>
+        <v>0.112001858648</v>
       </c>
       <c r="S2">
-        <v>0.01478287419682231</v>
+        <v>0.002587120238136663</v>
       </c>
       <c r="T2">
-        <v>0.01478287419682231</v>
+        <v>0.002587120238136662</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.196711</v>
+        <v>0.1433473333333333</v>
       </c>
       <c r="H3">
-        <v>0.590133</v>
+        <v>0.430042</v>
       </c>
       <c r="I3">
-        <v>0.05713779197487898</v>
+        <v>0.03250327325123204</v>
       </c>
       <c r="J3">
-        <v>0.05713779197487898</v>
+        <v>0.03250327325123203</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,28 +620,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.045395</v>
+        <v>0.1849383333333333</v>
       </c>
       <c r="N3">
-        <v>0.136185</v>
+        <v>0.5548149999999999</v>
       </c>
       <c r="O3">
-        <v>0.1352852180149823</v>
+        <v>0.1695599780812674</v>
       </c>
       <c r="P3">
-        <v>0.1352852180149823</v>
+        <v>0.1695599780812674</v>
       </c>
       <c r="Q3">
-        <v>0.008929695845</v>
+        <v>0.02651041691444444</v>
       </c>
       <c r="R3">
-        <v>0.080367262605</v>
+        <v>0.23859375223</v>
       </c>
       <c r="S3">
-        <v>0.007729898644216211</v>
+        <v>0.00551125430004835</v>
       </c>
       <c r="T3">
-        <v>0.007729898644216211</v>
+        <v>0.005511254300048348</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.196711</v>
+        <v>0.1433473333333333</v>
       </c>
       <c r="H4">
-        <v>0.590133</v>
+        <v>0.430042</v>
       </c>
       <c r="I4">
-        <v>0.05713779197487898</v>
+        <v>0.03250327325123204</v>
       </c>
       <c r="J4">
-        <v>0.05713779197487898</v>
+        <v>0.03250327325123203</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2033406666666667</v>
+        <v>0.8189426666666666</v>
       </c>
       <c r="N4">
-        <v>0.6100220000000001</v>
+        <v>2.456828</v>
       </c>
       <c r="O4">
-        <v>0.6059915501996223</v>
+        <v>0.7508443387966152</v>
       </c>
       <c r="P4">
-        <v>0.6059915501996223</v>
+        <v>0.7508443387966151</v>
       </c>
       <c r="Q4">
-        <v>0.03999934588066667</v>
+        <v>0.1173932474195555</v>
       </c>
       <c r="R4">
-        <v>0.359994112926</v>
+        <v>1.056539226776</v>
       </c>
       <c r="S4">
-        <v>0.03462501913384045</v>
+        <v>0.02440489871304703</v>
       </c>
       <c r="T4">
-        <v>0.03462501913384045</v>
+        <v>0.02440489871304702</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>6.715078</v>
       </c>
       <c r="I5">
-        <v>0.6501665384906222</v>
+        <v>0.5075365083813599</v>
       </c>
       <c r="J5">
-        <v>0.6501665384906222</v>
+        <v>0.5075365083813598</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -750,10 +750,10 @@
         <v>0.260444</v>
       </c>
       <c r="O5">
-        <v>0.2587232317853953</v>
+        <v>0.07959568312211748</v>
       </c>
       <c r="P5">
-        <v>0.2587232317853953</v>
+        <v>0.07959568312211748</v>
       </c>
       <c r="Q5">
         <v>0.1943224194035555</v>
@@ -762,10 +762,10 @@
         <v>1.748901774632</v>
       </c>
       <c r="S5">
-        <v>0.1682131880370174</v>
+        <v>0.04039771509402865</v>
       </c>
       <c r="T5">
-        <v>0.1682131880370174</v>
+        <v>0.04039771509402864</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>6.715078</v>
       </c>
       <c r="I6">
-        <v>0.6501665384906222</v>
+        <v>0.5075365083813599</v>
       </c>
       <c r="J6">
-        <v>0.6501665384906222</v>
+        <v>0.5075365083813598</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.045395</v>
+        <v>0.1849383333333333</v>
       </c>
       <c r="N6">
-        <v>0.136185</v>
+        <v>0.5548149999999999</v>
       </c>
       <c r="O6">
-        <v>0.1352852180149823</v>
+        <v>0.1695599780812674</v>
       </c>
       <c r="P6">
-        <v>0.1352852180149823</v>
+        <v>0.1695599780812674</v>
       </c>
       <c r="Q6">
-        <v>0.1016103219366667</v>
+        <v>0.4139584445077777</v>
       </c>
       <c r="R6">
-        <v>0.9144928974300001</v>
+        <v>3.72562600057</v>
       </c>
       <c r="S6">
-        <v>0.08795792190575023</v>
+        <v>0.08605787923658638</v>
       </c>
       <c r="T6">
-        <v>0.08795792190575023</v>
+        <v>0.08605787923658634</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>6.715078</v>
       </c>
       <c r="I7">
-        <v>0.6501665384906222</v>
+        <v>0.5075365083813599</v>
       </c>
       <c r="J7">
-        <v>0.6501665384906222</v>
+        <v>0.5075365083813598</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2033406666666667</v>
+        <v>0.8189426666666666</v>
       </c>
       <c r="N7">
-        <v>0.6100220000000001</v>
+        <v>2.456828</v>
       </c>
       <c r="O7">
-        <v>0.6059915501996223</v>
+        <v>0.7508443387966152</v>
       </c>
       <c r="P7">
-        <v>0.6059915501996223</v>
+        <v>0.7508443387966151</v>
       </c>
       <c r="Q7">
-        <v>0.4551494790795556</v>
+        <v>1.833087961398222</v>
       </c>
       <c r="R7">
-        <v>4.096345311716001</v>
+        <v>16.497791652584</v>
       </c>
       <c r="S7">
-        <v>0.3939954285478545</v>
+        <v>0.3810809140507449</v>
       </c>
       <c r="T7">
-        <v>0.3939954285478545</v>
+        <v>0.3810809140507447</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2829016666666667</v>
+        <v>1.598977333333333</v>
       </c>
       <c r="H8">
-        <v>0.8487049999999999</v>
+        <v>4.796932</v>
       </c>
       <c r="I8">
-        <v>0.08217322152470656</v>
+        <v>0.362559916388583</v>
       </c>
       <c r="J8">
-        <v>0.08217322152470656</v>
+        <v>0.362559916388583</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.260444</v>
       </c>
       <c r="O8">
-        <v>0.2587232317853953</v>
+        <v>0.07959568312211748</v>
       </c>
       <c r="P8">
-        <v>0.2587232317853953</v>
+        <v>0.07959568312211748</v>
       </c>
       <c r="Q8">
-        <v>0.02456001389111111</v>
+        <v>0.1388146842008889</v>
       </c>
       <c r="R8">
-        <v>0.22104012502</v>
+        <v>1.249332157808</v>
       </c>
       <c r="S8">
-        <v>0.02126012143908929</v>
+        <v>0.02885820421764706</v>
       </c>
       <c r="T8">
-        <v>0.02126012143908929</v>
+        <v>0.02885820421764706</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2829016666666667</v>
+        <v>1.598977333333333</v>
       </c>
       <c r="H9">
-        <v>0.8487049999999999</v>
+        <v>4.796932</v>
       </c>
       <c r="I9">
-        <v>0.08217322152470656</v>
+        <v>0.362559916388583</v>
       </c>
       <c r="J9">
-        <v>0.08217322152470656</v>
+        <v>0.362559916388583</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.045395</v>
+        <v>0.1849383333333333</v>
       </c>
       <c r="N9">
-        <v>0.136185</v>
+        <v>0.5548149999999999</v>
       </c>
       <c r="O9">
-        <v>0.1352852180149823</v>
+        <v>0.1695599780812674</v>
       </c>
       <c r="P9">
-        <v>0.1352852180149823</v>
+        <v>0.1695599780812674</v>
       </c>
       <c r="Q9">
-        <v>0.01284232115833333</v>
+        <v>0.2957122030644444</v>
       </c>
       <c r="R9">
-        <v>0.115580890425</v>
+        <v>2.66140982758</v>
       </c>
       <c r="S9">
-        <v>0.01111682218896337</v>
+        <v>0.06147565147599428</v>
       </c>
       <c r="T9">
-        <v>0.01111682218896337</v>
+        <v>0.06147565147599426</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2829016666666667</v>
+        <v>1.598977333333333</v>
       </c>
       <c r="H10">
-        <v>0.8487049999999999</v>
+        <v>4.796932</v>
       </c>
       <c r="I10">
-        <v>0.08217322152470656</v>
+        <v>0.362559916388583</v>
       </c>
       <c r="J10">
-        <v>0.08217322152470656</v>
+        <v>0.362559916388583</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2033406666666667</v>
+        <v>0.8189426666666666</v>
       </c>
       <c r="N10">
-        <v>0.6100220000000001</v>
+        <v>2.456828</v>
       </c>
       <c r="O10">
-        <v>0.6059915501996223</v>
+        <v>0.7508443387966152</v>
       </c>
       <c r="P10">
-        <v>0.6059915501996223</v>
+        <v>0.7508443387966151</v>
       </c>
       <c r="Q10">
-        <v>0.05752541350111112</v>
+        <v>1.309470761299555</v>
       </c>
       <c r="R10">
-        <v>0.51772872151</v>
+        <v>11.785236851696</v>
       </c>
       <c r="S10">
-        <v>0.0497962778966539</v>
+        <v>0.2722260606949417</v>
       </c>
       <c r="T10">
-        <v>0.0497962778966539</v>
+        <v>0.2722260606949417</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.01839066666666667</v>
+        <v>0.06293633333333333</v>
       </c>
       <c r="H11">
-        <v>0.05517200000000001</v>
+        <v>0.188809</v>
       </c>
       <c r="I11">
-        <v>0.00534185727427211</v>
+        <v>0.01427049106666761</v>
       </c>
       <c r="J11">
-        <v>0.00534185727427211</v>
+        <v>0.0142704910666676</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1122,22 +1122,22 @@
         <v>0.260444</v>
       </c>
       <c r="O11">
-        <v>0.2587232317853953</v>
+        <v>0.07959568312211748</v>
       </c>
       <c r="P11">
-        <v>0.2587232317853953</v>
+        <v>0.07959568312211748</v>
       </c>
       <c r="Q11">
-        <v>0.001596579596444445</v>
+        <v>0.005463796799555555</v>
       </c>
       <c r="R11">
-        <v>0.014369216368</v>
+        <v>0.049174171196</v>
       </c>
       <c r="S11">
-        <v>0.001382062577736003</v>
+        <v>0.001135869484939483</v>
       </c>
       <c r="T11">
-        <v>0.001382062577736003</v>
+        <v>0.001135869484939483</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.01839066666666667</v>
+        <v>0.06293633333333333</v>
       </c>
       <c r="H12">
-        <v>0.05517200000000001</v>
+        <v>0.188809</v>
       </c>
       <c r="I12">
-        <v>0.00534185727427211</v>
+        <v>0.01427049106666761</v>
       </c>
       <c r="J12">
-        <v>0.00534185727427211</v>
+        <v>0.0142704910666676</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.045395</v>
+        <v>0.1849383333333333</v>
       </c>
       <c r="N12">
-        <v>0.136185</v>
+        <v>0.5548149999999999</v>
       </c>
       <c r="O12">
-        <v>0.1352852180149823</v>
+        <v>0.1695599780812674</v>
       </c>
       <c r="P12">
-        <v>0.1352852180149823</v>
+        <v>0.1695599780812674</v>
       </c>
       <c r="Q12">
-        <v>0.0008348443133333334</v>
+        <v>0.01163934059277778</v>
       </c>
       <c r="R12">
-        <v>0.007513598820000001</v>
+        <v>0.104754065335</v>
       </c>
       <c r="S12">
-        <v>0.0007226743259548217</v>
+        <v>0.002419704152473081</v>
       </c>
       <c r="T12">
-        <v>0.0007226743259548217</v>
+        <v>0.002419704152473081</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.01839066666666667</v>
+        <v>0.06293633333333333</v>
       </c>
       <c r="H13">
-        <v>0.05517200000000001</v>
+        <v>0.188809</v>
       </c>
       <c r="I13">
-        <v>0.00534185727427211</v>
+        <v>0.01427049106666761</v>
       </c>
       <c r="J13">
-        <v>0.00534185727427211</v>
+        <v>0.0142704910666676</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2033406666666667</v>
+        <v>0.8189426666666666</v>
       </c>
       <c r="N13">
-        <v>0.6100220000000001</v>
+        <v>2.456828</v>
       </c>
       <c r="O13">
-        <v>0.6059915501996223</v>
+        <v>0.7508443387966152</v>
       </c>
       <c r="P13">
-        <v>0.6059915501996223</v>
+        <v>0.7508443387966151</v>
       </c>
       <c r="Q13">
-        <v>0.003739570420444446</v>
+        <v>0.05154124865022221</v>
       </c>
       <c r="R13">
-        <v>0.03365613378400001</v>
+        <v>0.463871237852</v>
       </c>
       <c r="S13">
-        <v>0.003237120370581285</v>
+        <v>0.01071491742925504</v>
       </c>
       <c r="T13">
-        <v>0.003237120370581285</v>
+        <v>0.01071491742925504</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.706385</v>
+        <v>0.3666226666666666</v>
       </c>
       <c r="H14">
-        <v>2.119155</v>
+        <v>1.099868</v>
       </c>
       <c r="I14">
-        <v>0.2051805907355201</v>
+        <v>0.0831298109121576</v>
       </c>
       <c r="J14">
-        <v>0.2051805907355201</v>
+        <v>0.08312981091215758</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,22 +1308,22 @@
         <v>0.260444</v>
       </c>
       <c r="O14">
-        <v>0.2587232317853953</v>
+        <v>0.07959568312211748</v>
       </c>
       <c r="P14">
-        <v>0.2587232317853953</v>
+        <v>0.07959568312211748</v>
       </c>
       <c r="Q14">
-        <v>0.06132457831333334</v>
+        <v>0.0318282245991111</v>
       </c>
       <c r="R14">
-        <v>0.5519212048200001</v>
+        <v>0.286454021392</v>
       </c>
       <c r="S14">
-        <v>0.05308498553473029</v>
+        <v>0.006616774087365641</v>
       </c>
       <c r="T14">
-        <v>0.05308498553473029</v>
+        <v>0.006616774087365639</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.706385</v>
+        <v>0.3666226666666666</v>
       </c>
       <c r="H15">
-        <v>2.119155</v>
+        <v>1.099868</v>
       </c>
       <c r="I15">
-        <v>0.2051805907355201</v>
+        <v>0.0831298109121576</v>
       </c>
       <c r="J15">
-        <v>0.2051805907355201</v>
+        <v>0.08312981091215758</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1364,28 +1364,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.045395</v>
+        <v>0.1849383333333333</v>
       </c>
       <c r="N15">
-        <v>0.136185</v>
+        <v>0.5548149999999999</v>
       </c>
       <c r="O15">
-        <v>0.1352852180149823</v>
+        <v>0.1695599780812674</v>
       </c>
       <c r="P15">
-        <v>0.1352852180149823</v>
+        <v>0.1695599780812674</v>
       </c>
       <c r="Q15">
-        <v>0.032066347075</v>
+        <v>0.06780258493555553</v>
       </c>
       <c r="R15">
-        <v>0.288597123675</v>
+        <v>0.6102232644199999</v>
       </c>
       <c r="S15">
-        <v>0.0277579009500977</v>
+        <v>0.01409548891616535</v>
       </c>
       <c r="T15">
-        <v>0.0277579009500977</v>
+        <v>0.01409548891616534</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.706385</v>
+        <v>0.3666226666666666</v>
       </c>
       <c r="H16">
-        <v>2.119155</v>
+        <v>1.099868</v>
       </c>
       <c r="I16">
-        <v>0.2051805907355201</v>
+        <v>0.0831298109121576</v>
       </c>
       <c r="J16">
-        <v>0.2051805907355201</v>
+        <v>0.08312981091215758</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2033406666666667</v>
+        <v>0.8189426666666666</v>
       </c>
       <c r="N16">
-        <v>0.6100220000000001</v>
+        <v>2.456828</v>
       </c>
       <c r="O16">
-        <v>0.6059915501996223</v>
+        <v>0.7508443387966152</v>
       </c>
       <c r="P16">
-        <v>0.6059915501996223</v>
+        <v>0.7508443387966151</v>
       </c>
       <c r="Q16">
-        <v>0.1436367968233334</v>
+        <v>0.3002429443004443</v>
       </c>
       <c r="R16">
-        <v>1.29273117141</v>
+        <v>2.702186498703999</v>
       </c>
       <c r="S16">
-        <v>0.1243377042506921</v>
+        <v>0.06241754790862662</v>
       </c>
       <c r="T16">
-        <v>0.1243377042506921</v>
+        <v>0.06241754790862659</v>
       </c>
     </row>
   </sheetData>
